--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\clearance\clearance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cleargo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Biology</t>
+  </si>
+  <si>
+    <t>Olatunji Joshua</t>
+  </si>
+  <si>
+    <t>josh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +456,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>132121</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cleargo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Cleargo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73514680-02EF-4695-8A83-D3125B75EC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="5520"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -69,12 +70,18 @@
   </si>
   <si>
     <t>josh@gmail.com</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Basic and Applied Sciences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,17 +474,17 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Cleargo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73514680-02EF-4695-8A83-D3125B75EC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869F1BA9-77D2-4F22-81D7-92680D3C23F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Olaniyi Olusegun</t>
-  </si>
-  <si>
     <t>oluseg614@gmail.com</t>
   </si>
   <si>
-    <t>Enviromental Sciences</t>
-  </si>
-  <si>
     <t>Adebisi Temidayo</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>Medical Sciences</t>
   </si>
   <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Olatunji Joshua</t>
-  </si>
-  <si>
     <t>josh@gmail.com</t>
   </si>
   <si>
@@ -76,6 +64,66 @@
   </si>
   <si>
     <t>Basic and Applied Sciences</t>
+  </si>
+  <si>
+    <t>Obajesu Ayomide</t>
+  </si>
+  <si>
+    <t>CSC/2018/0080</t>
+  </si>
+  <si>
+    <t>ANA/2018/0001</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>CVE/2018/0001</t>
+  </si>
+  <si>
+    <t>Olaniyi Oluwasogo</t>
+  </si>
+  <si>
+    <t>Aramide Dasola</t>
+  </si>
+  <si>
+    <t>aramide@gmail.com</t>
+  </si>
+  <si>
+    <t>Microbiology</t>
+  </si>
+  <si>
+    <t>MCB/2017/0001</t>
+  </si>
+  <si>
+    <t>Isakunke Emmanuel</t>
+  </si>
+  <si>
+    <t>emma@gmail.com</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>ENG/2017/0001</t>
+  </si>
+  <si>
+    <t>iyanu@gmail.com</t>
+  </si>
+  <si>
+    <t>PHY/2017/0005</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Oyebanji Iyanyuoluwa</t>
+  </si>
+  <si>
+    <t>Engineering</t>
   </si>
 </sst>
 </file>
@@ -404,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,53 +479,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>131192</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>132112</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>132121</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +584,11 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{D53AE305-4315-4F18-BC73-CCBF5A361C9F}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{2247DB79-118F-4FD1-A4CE-BC950F39F60C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C7FCA5E2-8BBE-45B1-9894-54AD54A0921B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>